--- a/management-documents/Diagramme_Gantt_YEP.xlsx
+++ b/management-documents/Diagramme_Gantt_YEP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kouristoll\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hepl-my.sharepoint.com/personal/thomas_beck_student_hepl_be/Documents/BLOC 3/Gestion de projet/hepl-3-project-management-antigaspi/management-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F40B642-F2B1-4222-8E54-479A991EA8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{8F40B642-F2B1-4222-8E54-479A991EA8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C406AD0B-8991-4E0C-BE7E-58EDC891B17B}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="525" windowWidth="21705" windowHeight="19890" activeTab="1" xr2:uid="{87B55739-CDEB-489D-AA73-78F65BDF8472}"/>
+    <workbookView xWindow="8910" yWindow="660" windowWidth="29295" windowHeight="19890" activeTab="1" xr2:uid="{87B55739-CDEB-489D-AA73-78F65BDF8472}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Choix du projet</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Finalisation du livrable</t>
   </si>
   <si>
-    <t>Présentation YEP</t>
-  </si>
-  <si>
     <t>Début du projet :</t>
   </si>
   <si>
@@ -84,15 +81,21 @@
   <si>
     <t>FIN</t>
   </si>
+  <si>
+    <t>Mise en place et configuration du projet</t>
+  </si>
+  <si>
+    <t>Intégration du design aux développements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="d"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="dddd\ d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="d"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="dddd\ d\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -275,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,32 +290,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -330,35 +333,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFAB6AC8"/>
+          <bgColor rgb="FFAC75D5"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFAB6AC8"/>
+          <bgColor rgb="FFAC75D5"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFAB6AC8"/>
+          <bgColor rgb="FFAC75D5"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFB08AE2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB08AE2"/>
+          <bgColor rgb="FFAC75D5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -699,7 +695,7 @@
   <dimension ref="A1:DD77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,116 +822,116 @@
       <c r="A2" s="15"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="17">
+      <c r="E2" s="21">
         <f>E3</f>
         <v>44109</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="17">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="21">
         <f t="shared" ref="L2" si="0">L3</f>
         <v>44116</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="17">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="1">S3</f>
         <v>44123</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="17">
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="21">
         <f t="shared" ref="Z2" si="2">Z3</f>
         <v>44130</v>
       </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="17">
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="3">AG3</f>
         <v>44137</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="17">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="21">
         <f t="shared" ref="AN2" si="4">AN3</f>
         <v>44144</v>
       </c>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="17">
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="21">
         <f t="shared" ref="AU2" si="5">AU3</f>
         <v>44151</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="17">
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="21">
         <f t="shared" ref="BB2" si="6">BB3</f>
         <v>44158</v>
       </c>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="17">
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="21">
         <f t="shared" ref="BI2" si="7">BI3</f>
         <v>44165</v>
       </c>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="17">
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="23"/>
+      <c r="BP2" s="21">
         <f t="shared" ref="BP2" si="8">BP3</f>
         <v>44172</v>
       </c>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="21">
         <f t="shared" ref="BW2" si="9">BW3</f>
         <v>44179</v>
       </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="19"/>
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="23"/>
       <c r="CD2" s="7"/>
       <c r="CE2" s="7"/>
       <c r="CF2" s="7"/>
@@ -966,318 +962,318 @@
     </row>
     <row r="3" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13">
         <v>44109</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <f>$B$3</f>
         <v>44109</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <f>E3+1</f>
         <v>44110</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <f t="shared" ref="G3:BR3" si="10">F3+1</f>
         <v>44111</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <f t="shared" si="10"/>
         <v>44112</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <f t="shared" si="10"/>
         <v>44113</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <f t="shared" si="10"/>
         <v>44114</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="19">
         <f t="shared" si="10"/>
         <v>44115</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="17">
         <f t="shared" si="10"/>
         <v>44116</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="18">
         <f t="shared" si="10"/>
         <v>44117</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="18">
         <f t="shared" si="10"/>
         <v>44118</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="18">
         <f t="shared" si="10"/>
         <v>44119</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="18">
         <f t="shared" si="10"/>
         <v>44120</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="18">
         <f t="shared" si="10"/>
         <v>44121</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="19">
         <f t="shared" si="10"/>
         <v>44122</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="17">
         <f t="shared" si="10"/>
         <v>44123</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="18">
         <f t="shared" si="10"/>
         <v>44124</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="18">
         <f t="shared" si="10"/>
         <v>44125</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="18">
         <f t="shared" si="10"/>
         <v>44126</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="18">
         <f t="shared" si="10"/>
         <v>44127</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="18">
         <f t="shared" si="10"/>
         <v>44128</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="19">
         <f t="shared" si="10"/>
         <v>44129</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="17">
         <f t="shared" si="10"/>
         <v>44130</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA3" s="18">
         <f t="shared" si="10"/>
         <v>44131</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AB3" s="18">
         <f t="shared" si="10"/>
         <v>44132</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AC3" s="18">
         <f t="shared" si="10"/>
         <v>44133</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AD3" s="18">
         <f t="shared" si="10"/>
         <v>44134</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AE3" s="18">
         <f t="shared" si="10"/>
         <v>44135</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="19">
         <f t="shared" si="10"/>
         <v>44136</v>
       </c>
-      <c r="AG3" s="20">
+      <c r="AG3" s="17">
         <f t="shared" si="10"/>
         <v>44137</v>
       </c>
-      <c r="AH3" s="21">
+      <c r="AH3" s="18">
         <f t="shared" si="10"/>
         <v>44138</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AI3" s="18">
         <f t="shared" si="10"/>
         <v>44139</v>
       </c>
-      <c r="AJ3" s="21">
+      <c r="AJ3" s="18">
         <f t="shared" si="10"/>
         <v>44140</v>
       </c>
-      <c r="AK3" s="21">
+      <c r="AK3" s="18">
         <f t="shared" si="10"/>
         <v>44141</v>
       </c>
-      <c r="AL3" s="21">
+      <c r="AL3" s="18">
         <f t="shared" si="10"/>
         <v>44142</v>
       </c>
-      <c r="AM3" s="22">
+      <c r="AM3" s="19">
         <f t="shared" si="10"/>
         <v>44143</v>
       </c>
-      <c r="AN3" s="20">
+      <c r="AN3" s="17">
         <f t="shared" si="10"/>
         <v>44144</v>
       </c>
-      <c r="AO3" s="21">
+      <c r="AO3" s="18">
         <f t="shared" si="10"/>
         <v>44145</v>
       </c>
-      <c r="AP3" s="21">
+      <c r="AP3" s="18">
         <f t="shared" si="10"/>
         <v>44146</v>
       </c>
-      <c r="AQ3" s="21">
+      <c r="AQ3" s="18">
         <f t="shared" si="10"/>
         <v>44147</v>
       </c>
-      <c r="AR3" s="21">
+      <c r="AR3" s="18">
         <f t="shared" si="10"/>
         <v>44148</v>
       </c>
-      <c r="AS3" s="21">
+      <c r="AS3" s="18">
         <f t="shared" si="10"/>
         <v>44149</v>
       </c>
-      <c r="AT3" s="22">
+      <c r="AT3" s="19">
         <f t="shared" si="10"/>
         <v>44150</v>
       </c>
-      <c r="AU3" s="20">
+      <c r="AU3" s="17">
         <f t="shared" si="10"/>
         <v>44151</v>
       </c>
-      <c r="AV3" s="21">
+      <c r="AV3" s="18">
         <f t="shared" si="10"/>
         <v>44152</v>
       </c>
-      <c r="AW3" s="21">
+      <c r="AW3" s="18">
         <f t="shared" si="10"/>
         <v>44153</v>
       </c>
-      <c r="AX3" s="21">
+      <c r="AX3" s="18">
         <f t="shared" si="10"/>
         <v>44154</v>
       </c>
-      <c r="AY3" s="21">
+      <c r="AY3" s="18">
         <f t="shared" si="10"/>
         <v>44155</v>
       </c>
-      <c r="AZ3" s="21">
+      <c r="AZ3" s="18">
         <f t="shared" si="10"/>
         <v>44156</v>
       </c>
-      <c r="BA3" s="22">
+      <c r="BA3" s="19">
         <f t="shared" si="10"/>
         <v>44157</v>
       </c>
-      <c r="BB3" s="20">
+      <c r="BB3" s="17">
         <f t="shared" si="10"/>
         <v>44158</v>
       </c>
-      <c r="BC3" s="21">
+      <c r="BC3" s="18">
         <f t="shared" si="10"/>
         <v>44159</v>
       </c>
-      <c r="BD3" s="21">
+      <c r="BD3" s="18">
         <f t="shared" si="10"/>
         <v>44160</v>
       </c>
-      <c r="BE3" s="21">
+      <c r="BE3" s="18">
         <f t="shared" si="10"/>
         <v>44161</v>
       </c>
-      <c r="BF3" s="21">
+      <c r="BF3" s="18">
         <f t="shared" si="10"/>
         <v>44162</v>
       </c>
-      <c r="BG3" s="21">
+      <c r="BG3" s="18">
         <f t="shared" si="10"/>
         <v>44163</v>
       </c>
-      <c r="BH3" s="22">
+      <c r="BH3" s="19">
         <f t="shared" si="10"/>
         <v>44164</v>
       </c>
-      <c r="BI3" s="20">
+      <c r="BI3" s="17">
         <f t="shared" si="10"/>
         <v>44165</v>
       </c>
-      <c r="BJ3" s="21">
+      <c r="BJ3" s="18">
         <f t="shared" si="10"/>
         <v>44166</v>
       </c>
-      <c r="BK3" s="21">
+      <c r="BK3" s="18">
         <f t="shared" si="10"/>
         <v>44167</v>
       </c>
-      <c r="BL3" s="21">
+      <c r="BL3" s="18">
         <f t="shared" si="10"/>
         <v>44168</v>
       </c>
-      <c r="BM3" s="21">
+      <c r="BM3" s="18">
         <f t="shared" si="10"/>
         <v>44169</v>
       </c>
-      <c r="BN3" s="21">
+      <c r="BN3" s="18">
         <f t="shared" si="10"/>
         <v>44170</v>
       </c>
-      <c r="BO3" s="22">
+      <c r="BO3" s="19">
         <f t="shared" si="10"/>
         <v>44171</v>
       </c>
-      <c r="BP3" s="20">
+      <c r="BP3" s="17">
         <f t="shared" si="10"/>
         <v>44172</v>
       </c>
-      <c r="BQ3" s="21">
+      <c r="BQ3" s="18">
         <f t="shared" si="10"/>
         <v>44173</v>
       </c>
-      <c r="BR3" s="21">
+      <c r="BR3" s="18">
         <f t="shared" si="10"/>
         <v>44174</v>
       </c>
-      <c r="BS3" s="21">
+      <c r="BS3" s="18">
         <f t="shared" ref="BS3:CC3" si="11">BR3+1</f>
         <v>44175</v>
       </c>
-      <c r="BT3" s="21">
+      <c r="BT3" s="18">
         <f t="shared" si="11"/>
         <v>44176</v>
       </c>
-      <c r="BU3" s="21">
+      <c r="BU3" s="18">
         <f t="shared" si="11"/>
         <v>44177</v>
       </c>
-      <c r="BV3" s="22">
+      <c r="BV3" s="19">
         <f t="shared" si="11"/>
         <v>44178</v>
       </c>
-      <c r="BW3" s="20">
+      <c r="BW3" s="17">
         <f t="shared" si="11"/>
         <v>44179</v>
       </c>
-      <c r="BX3" s="21">
+      <c r="BX3" s="18">
         <f t="shared" si="11"/>
         <v>44180</v>
       </c>
-      <c r="BY3" s="21">
+      <c r="BY3" s="18">
         <f t="shared" si="11"/>
         <v>44181</v>
       </c>
-      <c r="BZ3" s="21">
+      <c r="BZ3" s="18">
         <f t="shared" si="11"/>
         <v>44182</v>
       </c>
-      <c r="CA3" s="21">
+      <c r="CA3" s="18">
         <f t="shared" si="11"/>
         <v>44183</v>
       </c>
-      <c r="CB3" s="21">
+      <c r="CB3" s="18">
         <f t="shared" si="11"/>
         <v>44184</v>
       </c>
-      <c r="CC3" s="22">
+      <c r="CC3" s="19">
         <f t="shared" si="11"/>
         <v>44185</v>
       </c>
@@ -1311,13 +1307,13 @@
     </row>
     <row r="4" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="str">
@@ -1661,7 +1657,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1770,11 +1766,12 @@
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>44110</v>
       </c>
-      <c r="C6" s="23">
-        <v>44117</v>
+      <c r="C6" s="20">
+        <f>B6+1</f>
+        <v>44111</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -1886,11 +1883,13 @@
       <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="20">
+        <f>C6+1</f>
         <v>44112</v>
       </c>
-      <c r="C7" s="23">
-        <v>44117</v>
+      <c r="C7" s="20">
+        <f>B7+3</f>
+        <v>44115</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -2002,11 +2001,13 @@
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="23">
-        <v>44119</v>
-      </c>
-      <c r="C8" s="23">
-        <v>44122</v>
+      <c r="B8" s="20">
+        <f>C7+1</f>
+        <v>44116</v>
+      </c>
+      <c r="C8" s="20">
+        <f>B8+5</f>
+        <v>44121</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
@@ -2118,11 +2119,13 @@
       <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="23">
-        <v>44123</v>
-      </c>
-      <c r="C9" s="23">
-        <v>44123</v>
+      <c r="B9" s="20">
+        <f>C8+1</f>
+        <v>44122</v>
+      </c>
+      <c r="C9" s="20">
+        <f>B9+4</f>
+        <v>44126</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -2234,11 +2237,13 @@
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="23">
-        <v>44123</v>
-      </c>
-      <c r="C10" s="23">
-        <v>44125</v>
+      <c r="B10" s="20">
+        <f>C9+1</f>
+        <v>44127</v>
+      </c>
+      <c r="C10" s="20">
+        <f>B10+7</f>
+        <v>44134</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
@@ -2350,11 +2355,13 @@
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="23">
-        <v>44127</v>
-      </c>
-      <c r="C11" s="23">
-        <v>44128</v>
+      <c r="B11" s="20">
+        <f>C8+1</f>
+        <v>44122</v>
+      </c>
+      <c r="C11" s="20">
+        <f>B11+3</f>
+        <v>44125</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -2466,11 +2473,13 @@
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="23">
-        <v>44131</v>
-      </c>
-      <c r="C12" s="23">
-        <v>44133</v>
+      <c r="B12" s="20">
+        <f>C11+1</f>
+        <v>44126</v>
+      </c>
+      <c r="C12" s="20">
+        <f>B12+14</f>
+        <v>44140</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -2580,13 +2589,15 @@
     </row>
     <row r="13" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="23">
-        <v>44140</v>
-      </c>
-      <c r="C13" s="23">
+        <v>18</v>
+      </c>
+      <c r="B13" s="20">
+        <f>C12+1</f>
         <v>44141</v>
+      </c>
+      <c r="C13" s="20">
+        <f>B13+3</f>
+        <v>44144</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
@@ -2696,13 +2707,15 @@
     </row>
     <row r="14" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20">
+        <f>C13+1</f>
         <v>44145</v>
       </c>
-      <c r="C14" s="23">
-        <v>44154</v>
+      <c r="C14" s="20">
+        <f>B14+7</f>
+        <v>44152</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -2812,13 +2825,15 @@
     </row>
     <row r="15" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="B15" s="20">
+        <f>C13+1</f>
         <v>44145</v>
       </c>
-      <c r="C15" s="23">
-        <v>44154</v>
+      <c r="C15" s="20">
+        <f>B15+14</f>
+        <v>44159</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
@@ -2928,13 +2943,15 @@
     </row>
     <row r="16" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="23">
-        <v>44157</v>
-      </c>
-      <c r="C16" s="23">
-        <v>44160</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="20">
+        <f>C13+1</f>
+        <v>44145</v>
+      </c>
+      <c r="C16" s="20">
+        <f>B16+7</f>
+        <v>44152</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -3046,11 +3063,13 @@
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="23">
-        <v>44159</v>
-      </c>
-      <c r="C17" s="23">
-        <v>44164</v>
+      <c r="B17" s="20">
+        <f>C13+1</f>
+        <v>44145</v>
+      </c>
+      <c r="C17" s="20">
+        <f>B17+7</f>
+        <v>44152</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -3162,11 +3181,13 @@
       <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
+        <f>C13+1</f>
+        <v>44145</v>
+      </c>
+      <c r="C18" s="20">
+        <f>B18+14</f>
         <v>44159</v>
-      </c>
-      <c r="C18" s="23">
-        <v>44165</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3275,14 +3296,16 @@
       <c r="DD18" s="7"/>
     </row>
     <row r="19" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="23">
-        <v>44149</v>
-      </c>
-      <c r="C19" s="23">
-        <v>44175</v>
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="20">
+        <f>C15+1</f>
+        <v>44160</v>
+      </c>
+      <c r="C19" s="20">
+        <f>B19+7</f>
+        <v>44167</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
@@ -3392,13 +3415,15 @@
     </row>
     <row r="20" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="23">
-        <v>44180</v>
-      </c>
-      <c r="C20" s="23">
-        <v>44180</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="20">
+        <f>C19+1</f>
+        <v>44168</v>
+      </c>
+      <c r="C20" s="20">
+        <f>B20+7</f>
+        <v>44175</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
@@ -3492,87 +3517,94 @@
       <c r="CO20" s="7"/>
     </row>
     <row r="21" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-      <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-      <c r="BH21" s="8"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
-      <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
-      <c r="BN21" s="8"/>
-      <c r="BO21" s="8"/>
-      <c r="BP21" s="8"/>
-      <c r="BQ21" s="8"/>
-      <c r="BR21" s="8"/>
-      <c r="BS21" s="8"/>
-      <c r="BT21" s="8"/>
-      <c r="BU21" s="8"/>
-      <c r="BV21" s="8"/>
-      <c r="BW21" s="8"/>
-      <c r="BX21" s="8"/>
-      <c r="BY21" s="8"/>
-      <c r="BZ21" s="8"/>
-      <c r="CA21" s="8"/>
-      <c r="CB21" s="8"/>
-      <c r="CC21" s="8"/>
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="20">
+        <f>C20+1</f>
+        <v>44176</v>
+      </c>
+      <c r="C21" s="20">
+        <v>44180</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="11"/>
+      <c r="BG21" s="11"/>
+      <c r="BH21" s="11"/>
+      <c r="BI21" s="11"/>
+      <c r="BJ21" s="11"/>
+      <c r="BK21" s="11"/>
+      <c r="BL21" s="11"/>
+      <c r="BM21" s="11"/>
+      <c r="BN21" s="11"/>
+      <c r="BO21" s="11"/>
+      <c r="BP21" s="11"/>
+      <c r="BQ21" s="11"/>
+      <c r="BR21" s="11"/>
+      <c r="BS21" s="11"/>
+      <c r="BT21" s="11"/>
+      <c r="BU21" s="11"/>
+      <c r="BV21" s="11"/>
+      <c r="BW21" s="11"/>
+      <c r="BX21" s="11"/>
+      <c r="BY21" s="11"/>
+      <c r="BZ21" s="11"/>
+      <c r="CA21" s="11"/>
+      <c r="CB21" s="11"/>
+      <c r="CC21" s="11"/>
       <c r="CD21" s="7"/>
       <c r="CE21" s="7"/>
       <c r="CF21" s="7"/>
@@ -4065,7 +4097,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -4142,7 +4174,7 @@
       <c r="BZ27" s="8"/>
       <c r="CA27" s="8"/>
       <c r="CB27" s="8"/>
-      <c r="CC27" s="8"/>
+      <c r="CC27" s="7"/>
       <c r="CD27" s="7"/>
       <c r="CE27" s="7"/>
       <c r="CF27" s="7"/>
@@ -4154,13 +4186,12 @@
       <c r="CL27" s="7"/>
       <c r="CM27" s="7"/>
       <c r="CN27" s="7"/>
-      <c r="CO27" s="7"/>
     </row>
     <row r="28" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -4237,7 +4268,7 @@
       <c r="BZ28" s="8"/>
       <c r="CA28" s="8"/>
       <c r="CB28" s="8"/>
-      <c r="CC28" s="8"/>
+      <c r="CC28" s="7"/>
       <c r="CD28" s="7"/>
       <c r="CE28" s="7"/>
       <c r="CF28" s="7"/>
@@ -4249,13 +4280,12 @@
       <c r="CL28" s="7"/>
       <c r="CM28" s="7"/>
       <c r="CN28" s="7"/>
-      <c r="CO28" s="7"/>
     </row>
     <row r="29" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -4332,7 +4362,7 @@
       <c r="BZ29" s="8"/>
       <c r="CA29" s="8"/>
       <c r="CB29" s="8"/>
-      <c r="CC29" s="8"/>
+      <c r="CC29" s="7"/>
       <c r="CD29" s="7"/>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
@@ -4344,7 +4374,6 @@
       <c r="CL29" s="7"/>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
-      <c r="CO29" s="7"/>
     </row>
     <row r="30" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -8913,15 +8942,15 @@
     <mergeCell ref="BI2:BO2"/>
     <mergeCell ref="BP2:BV2"/>
     <mergeCell ref="BW2:CC2"/>
+    <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:Y2"/>
     <mergeCell ref="Z2:AF2"/>
     <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:CC20">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="E6:CC21">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(E$3&gt;=$B6,E$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
